--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -80078,7 +80078,11 @@
           <t>$17.87B</t>
         </is>
       </c>
-      <c r="E2933" t="inlineStr"/>
+      <c r="E2933" t="inlineStr">
+        <is>
+          <t>$10.5B</t>
+        </is>
+      </c>
       <c r="F2933" t="inlineStr">
         <is>
           <t>$12.1B</t>
@@ -80262,7 +80266,11 @@
           <t>-0.3%</t>
         </is>
       </c>
-      <c r="F2940" t="inlineStr"/>
+      <c r="F2940" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G2940" t="inlineStr">
         <is>
           <t>3</t>
@@ -80620,7 +80628,11 @@
           <t>233K</t>
         </is>
       </c>
-      <c r="E2955" t="inlineStr"/>
+      <c r="E2955" t="inlineStr">
+        <is>
+          <t>235K</t>
+        </is>
+      </c>
       <c r="F2955" t="inlineStr">
         <is>
           <t>245.0K</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2971"/>
+  <dimension ref="A1:G2973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79762,7 +79762,7 @@
     <row r="2919">
       <c r="A2919" t="inlineStr">
         <is>
-          <t>Sunday July 06 2025</t>
+          <t>Monday July 07 2025</t>
         </is>
       </c>
       <c r="B2919" t="inlineStr"/>
@@ -79775,15 +79775,27 @@
     <row r="2920">
       <c r="A2920" t="inlineStr">
         <is>
-          <t>Monday July 07 2025</t>
-        </is>
-      </c>
-      <c r="B2920" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2920" t="inlineStr"/>
-      <c r="D2920" t="inlineStr"/>
+      <c r="D2920" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E2920" t="inlineStr"/>
       <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
+      <c r="G2920" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
@@ -79793,13 +79805,13 @@
       </c>
       <c r="B2921" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2921" t="inlineStr"/>
       <c r="D2921" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.110%</t>
         </is>
       </c>
       <c r="E2921" t="inlineStr"/>
@@ -79813,60 +79825,64 @@
     <row r="2922">
       <c r="A2922" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2922" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday July 08 2025</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr"/>
       <c r="C2922" t="inlineStr"/>
-      <c r="D2922" t="inlineStr">
-        <is>
-          <t>4.110%</t>
-        </is>
-      </c>
+      <c r="D2922" t="inlineStr"/>
       <c r="E2922" t="inlineStr"/>
       <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2922" t="inlineStr"/>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>Tuesday July 08 2025</t>
-        </is>
-      </c>
-      <c r="B2923" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJUL/02</t>
+        </is>
+      </c>
       <c r="C2923" t="inlineStr"/>
-      <c r="D2923" t="inlineStr"/>
+      <c r="D2923" t="inlineStr">
+        <is>
+          <t>$6.67T</t>
+        </is>
+      </c>
       <c r="E2923" t="inlineStr"/>
       <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
+      <c r="G2923" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2924" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/02</t>
+          <t>NFIB Business Optimism IndexJUN</t>
         </is>
       </c>
       <c r="C2924" t="inlineStr"/>
       <c r="D2924" t="inlineStr">
         <is>
-          <t>$6.67T</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="E2924" t="inlineStr"/>
-      <c r="F2924" t="inlineStr"/>
+      <c r="F2924" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
       <c r="G2924" t="inlineStr">
         <is>
           <t>3</t>
@@ -79876,26 +79892,22 @@
     <row r="2925">
       <c r="A2925" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2925" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJUN</t>
+          <t>Redbook YoYJUL/05</t>
         </is>
       </c>
       <c r="C2925" t="inlineStr"/>
       <c r="D2925" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2925" t="inlineStr"/>
-      <c r="F2925" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
+      <c r="F2925" t="inlineStr"/>
       <c r="G2925" t="inlineStr">
         <is>
           <t>3</t>
@@ -79905,22 +79917,26 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2926" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/05</t>
+          <t>Consumer Inflation ExpectationsJUN</t>
         </is>
       </c>
       <c r="C2926" t="inlineStr"/>
       <c r="D2926" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E2926" t="inlineStr"/>
-      <c r="F2926" t="inlineStr"/>
+      <c r="F2926" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G2926" t="inlineStr">
         <is>
           <t>3</t>
@@ -79930,26 +79946,22 @@
     <row r="2927">
       <c r="A2927" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2927" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJUN</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2927" t="inlineStr"/>
       <c r="D2927" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E2927" t="inlineStr"/>
-      <c r="F2927" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2927" t="inlineStr"/>
       <c r="G2927" t="inlineStr">
         <is>
           <t>3</t>
@@ -79959,18 +79971,18 @@
     <row r="2928">
       <c r="A2928" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2928" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>3-Year Note Auction</t>
         </is>
       </c>
       <c r="C2928" t="inlineStr"/>
       <c r="D2928" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>3.972%</t>
         </is>
       </c>
       <c r="E2928" t="inlineStr"/>
@@ -79982,20 +79994,16 @@
       </c>
     </row>
     <row r="2929">
-      <c r="A2929" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
+      <c r="A2929" t="inlineStr"/>
       <c r="B2929" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Used Car Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2929" t="inlineStr"/>
       <c r="D2929" t="inlineStr">
         <is>
-          <t>3.972%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="E2929" t="inlineStr"/>
@@ -80010,13 +80018,13 @@
       <c r="A2930" t="inlineStr"/>
       <c r="B2930" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJUN</t>
+          <t>Used Car Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2930" t="inlineStr"/>
       <c r="D2930" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2930" t="inlineStr"/>
@@ -80028,87 +80036,91 @@
       </c>
     </row>
     <row r="2931">
-      <c r="A2931" t="inlineStr"/>
-      <c r="B2931" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJUN</t>
-        </is>
-      </c>
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>Wednesday July 09 2025</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr"/>
       <c r="C2931" t="inlineStr"/>
-      <c r="D2931" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D2931" t="inlineStr"/>
       <c r="E2931" t="inlineStr"/>
       <c r="F2931" t="inlineStr"/>
-      <c r="G2931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2931" t="inlineStr"/>
     </row>
     <row r="2932">
       <c r="A2932" t="inlineStr">
         <is>
-          <t>Wednesday July 09 2025</t>
-        </is>
-      </c>
-      <c r="B2932" t="inlineStr"/>
+          <t>12:30 AM</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>Consumer Credit ChangeMAY</t>
+        </is>
+      </c>
       <c r="C2932" t="inlineStr"/>
-      <c r="D2932" t="inlineStr"/>
-      <c r="E2932" t="inlineStr"/>
-      <c r="F2932" t="inlineStr"/>
-      <c r="G2932" t="inlineStr"/>
+      <c r="D2932" t="inlineStr">
+        <is>
+          <t>$17.87B</t>
+        </is>
+      </c>
+      <c r="E2932" t="inlineStr">
+        <is>
+          <t>$10.5B</t>
+        </is>
+      </c>
+      <c r="F2932" t="inlineStr">
+        <is>
+          <t>$12.1B</t>
+        </is>
+      </c>
+      <c r="G2932" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2933">
       <c r="A2933" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2933" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeMAY</t>
+          <t>API Crude Oil Stock ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2933" t="inlineStr"/>
       <c r="D2933" t="inlineStr">
         <is>
-          <t>$17.87B</t>
-        </is>
-      </c>
-      <c r="E2933" t="inlineStr">
-        <is>
-          <t>$10.5B</t>
-        </is>
-      </c>
-      <c r="F2933" t="inlineStr">
-        <is>
-          <t>$12.1B</t>
-        </is>
-      </c>
+          <t>0.680M</t>
+        </is>
+      </c>
+      <c r="E2933" t="inlineStr"/>
+      <c r="F2933" t="inlineStr"/>
       <c r="G2933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2934" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/04</t>
+          <t>MBA 30-Year Mortgage RateJUL/04</t>
         </is>
       </c>
       <c r="C2934" t="inlineStr"/>
       <c r="D2934" t="inlineStr">
         <is>
-          <t>0.680M</t>
+          <t>6.79%</t>
         </is>
       </c>
       <c r="E2934" t="inlineStr"/>
@@ -80127,20 +80139,20 @@
       </c>
       <c r="B2935" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/04</t>
+          <t>MBA Mortgage ApplicationsJUL/04</t>
         </is>
       </c>
       <c r="C2935" t="inlineStr"/>
       <c r="D2935" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E2935" t="inlineStr"/>
       <c r="F2935" t="inlineStr"/>
       <c r="G2935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -80152,13 +80164,13 @@
       </c>
       <c r="B2936" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/04</t>
+          <t>MBA Mortgage Market IndexJUL/04</t>
         </is>
       </c>
       <c r="C2936" t="inlineStr"/>
       <c r="D2936" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>257.5</t>
         </is>
       </c>
       <c r="E2936" t="inlineStr"/>
@@ -80177,13 +80189,13 @@
       </c>
       <c r="B2937" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/04</t>
+          <t>MBA Mortgage Refinance IndexJUL/04</t>
         </is>
       </c>
       <c r="C2937" t="inlineStr"/>
       <c r="D2937" t="inlineStr">
         <is>
-          <t>257.5</t>
+          <t>759.7</t>
         </is>
       </c>
       <c r="E2937" t="inlineStr"/>
@@ -80202,13 +80214,13 @@
       </c>
       <c r="B2938" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/04</t>
+          <t>MBA Purchase IndexJUL/04</t>
         </is>
       </c>
       <c r="C2938" t="inlineStr"/>
       <c r="D2938" t="inlineStr">
         <is>
-          <t>759.7</t>
+          <t>165.3</t>
         </is>
       </c>
       <c r="E2938" t="inlineStr"/>
@@ -80222,22 +80234,30 @@
     <row r="2939">
       <c r="A2939" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2939" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/04</t>
+          <t>Wholesale Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2939" t="inlineStr"/>
       <c r="D2939" t="inlineStr">
         <is>
-          <t>165.3</t>
-        </is>
-      </c>
-      <c r="E2939" t="inlineStr"/>
-      <c r="F2939" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E2939" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F2939" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G2939" t="inlineStr">
         <is>
           <t>3</t>
@@ -80247,33 +80267,25 @@
     <row r="2940">
       <c r="A2940" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2940" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMMAY</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2940" t="inlineStr"/>
       <c r="D2940" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2940" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2940" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>3.845M</t>
+        </is>
+      </c>
+      <c r="E2940" t="inlineStr"/>
+      <c r="F2940" t="inlineStr"/>
       <c r="G2940" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -80285,13 +80297,13 @@
       </c>
       <c r="B2941" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Gasoline Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2941" t="inlineStr"/>
       <c r="D2941" t="inlineStr">
         <is>
-          <t>3.845M</t>
+          <t>4.188M</t>
         </is>
       </c>
       <c r="E2941" t="inlineStr"/>
@@ -80310,20 +80322,20 @@
       </c>
       <c r="B2942" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/04</t>
+          <t>EIA Crude Oil Imports ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2942" t="inlineStr"/>
       <c r="D2942" t="inlineStr">
         <is>
-          <t>4.188M</t>
+          <t>2.94M</t>
         </is>
       </c>
       <c r="E2942" t="inlineStr"/>
       <c r="F2942" t="inlineStr"/>
       <c r="G2942" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -80335,13 +80347,13 @@
       </c>
       <c r="B2943" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/04</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2943" t="inlineStr"/>
       <c r="D2943" t="inlineStr">
         <is>
-          <t>2.94M</t>
+          <t>-1.493M</t>
         </is>
       </c>
       <c r="E2943" t="inlineStr"/>
@@ -80360,13 +80372,13 @@
       </c>
       <c r="B2944" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2944" t="inlineStr"/>
       <c r="D2944" t="inlineStr">
         <is>
-          <t>-1.493M</t>
+          <t>0.245M</t>
         </is>
       </c>
       <c r="E2944" t="inlineStr"/>
@@ -80385,13 +80397,13 @@
       </c>
       <c r="B2945" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
+          <t>EIA Distillate Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2945" t="inlineStr"/>
       <c r="D2945" t="inlineStr">
         <is>
-          <t>0.245M</t>
+          <t>-1.71M</t>
         </is>
       </c>
       <c r="E2945" t="inlineStr"/>
@@ -80410,13 +80422,13 @@
       </c>
       <c r="B2946" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/04</t>
+          <t>EIA Gasoline Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2946" t="inlineStr"/>
       <c r="D2946" t="inlineStr">
         <is>
-          <t>-1.71M</t>
+          <t>-0.491M</t>
         </is>
       </c>
       <c r="E2946" t="inlineStr"/>
@@ -80435,13 +80447,13 @@
       </c>
       <c r="B2947" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/04</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2947" t="inlineStr"/>
       <c r="D2947" t="inlineStr">
         <is>
-          <t>-0.491M</t>
+          <t>-0.202M</t>
         </is>
       </c>
       <c r="E2947" t="inlineStr"/>
@@ -80460,13 +80472,13 @@
       </c>
       <c r="B2948" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2948" t="inlineStr"/>
       <c r="D2948" t="inlineStr">
         <is>
-          <t>-0.202M</t>
+          <t>0.118M</t>
         </is>
       </c>
       <c r="E2948" t="inlineStr"/>
@@ -80485,16 +80497,16 @@
       </c>
       <c r="B2949" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
+          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
         </is>
       </c>
       <c r="C2949" t="inlineStr"/>
-      <c r="D2949" t="inlineStr">
-        <is>
-          <t>0.118M</t>
-        </is>
-      </c>
-      <c r="E2949" t="inlineStr"/>
+      <c r="D2949" t="inlineStr"/>
+      <c r="E2949" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F2949" t="inlineStr"/>
       <c r="G2949" t="inlineStr">
         <is>
@@ -80505,21 +80517,21 @@
     <row r="2950">
       <c r="A2950" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2950" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2950" t="inlineStr"/>
-      <c r="D2950" t="inlineStr"/>
-      <c r="E2950" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="D2950" t="inlineStr">
+        <is>
+          <t>4.185%</t>
+        </is>
+      </c>
+      <c r="E2950" t="inlineStr"/>
       <c r="F2950" t="inlineStr"/>
       <c r="G2950" t="inlineStr">
         <is>
@@ -80530,18 +80542,18 @@
     <row r="2951">
       <c r="A2951" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2951" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C2951" t="inlineStr"/>
       <c r="D2951" t="inlineStr">
         <is>
-          <t>4.185%</t>
+          <t>4.421%</t>
         </is>
       </c>
       <c r="E2951" t="inlineStr"/>
@@ -80555,61 +80567,69 @@
     <row r="2952">
       <c r="A2952" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2952" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C2952" t="inlineStr"/>
-      <c r="D2952" t="inlineStr">
-        <is>
-          <t>4.421%</t>
-        </is>
-      </c>
+      <c r="D2952" t="inlineStr"/>
       <c r="E2952" t="inlineStr"/>
       <c r="F2952" t="inlineStr"/>
       <c r="G2952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2953">
       <c r="A2953" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2953" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
+          <t>Thursday July 10 2025</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr"/>
       <c r="C2953" t="inlineStr"/>
       <c r="D2953" t="inlineStr"/>
       <c r="E2953" t="inlineStr"/>
       <c r="F2953" t="inlineStr"/>
-      <c r="G2953" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G2953" t="inlineStr"/>
     </row>
     <row r="2954">
       <c r="A2954" t="inlineStr">
         <is>
-          <t>Thursday July 10 2025</t>
-        </is>
-      </c>
-      <c r="B2954" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJUL/05</t>
+        </is>
+      </c>
       <c r="C2954" t="inlineStr"/>
-      <c r="D2954" t="inlineStr"/>
-      <c r="E2954" t="inlineStr"/>
-      <c r="F2954" t="inlineStr"/>
-      <c r="G2954" t="inlineStr"/>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>233K</t>
+        </is>
+      </c>
+      <c r="E2954" t="inlineStr">
+        <is>
+          <t>235K</t>
+        </is>
+      </c>
+      <c r="F2954" t="inlineStr">
+        <is>
+          <t>245.0K</t>
+        </is>
+      </c>
+      <c r="G2954" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2955">
       <c r="A2955" t="inlineStr">
@@ -80619,28 +80639,24 @@
       </c>
       <c r="B2955" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/05</t>
+          <t>Continuing Jobless ClaimsJUN/28</t>
         </is>
       </c>
       <c r="C2955" t="inlineStr"/>
       <c r="D2955" t="inlineStr">
         <is>
-          <t>233K</t>
-        </is>
-      </c>
-      <c r="E2955" t="inlineStr">
-        <is>
-          <t>235K</t>
-        </is>
-      </c>
+          <t>1964K</t>
+        </is>
+      </c>
+      <c r="E2955" t="inlineStr"/>
       <c r="F2955" t="inlineStr">
         <is>
-          <t>245.0K</t>
+          <t>1967.0K</t>
         </is>
       </c>
       <c r="G2955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -80652,19 +80668,19 @@
       </c>
       <c r="B2956" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUN/28</t>
+          <t>Jobless Claims 4-week AverageJUL/05</t>
         </is>
       </c>
       <c r="C2956" t="inlineStr"/>
       <c r="D2956" t="inlineStr">
         <is>
-          <t>1964K</t>
+          <t>241.5K</t>
         </is>
       </c>
       <c r="E2956" t="inlineStr"/>
       <c r="F2956" t="inlineStr">
         <is>
-          <t>1967.0K</t>
+          <t>243.0K</t>
         </is>
       </c>
       <c r="G2956" t="inlineStr">
@@ -80676,29 +80692,21 @@
     <row r="2957">
       <c r="A2957" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2957" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/05</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C2957" t="inlineStr"/>
-      <c r="D2957" t="inlineStr">
-        <is>
-          <t>241.5K</t>
-        </is>
-      </c>
+      <c r="D2957" t="inlineStr"/>
       <c r="E2957" t="inlineStr"/>
-      <c r="F2957" t="inlineStr">
-        <is>
-          <t>243.0K</t>
-        </is>
-      </c>
+      <c r="F2957" t="inlineStr"/>
       <c r="G2957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -80855,46 +80863,46 @@
     <row r="2964">
       <c r="A2964" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2964" t="inlineStr"/>
+          <t>10:45 PM</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>Fed Waller Speech</t>
+        </is>
+      </c>
       <c r="C2964" t="inlineStr"/>
       <c r="D2964" t="inlineStr"/>
       <c r="E2964" t="inlineStr"/>
       <c r="F2964" t="inlineStr"/>
-      <c r="G2964" t="inlineStr"/>
+      <c r="G2964" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2965">
       <c r="A2965" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2965" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJUL/09</t>
-        </is>
-      </c>
+          <t>Friday July 11 2025</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr"/>
       <c r="C2965" t="inlineStr"/>
       <c r="D2965" t="inlineStr"/>
       <c r="E2965" t="inlineStr"/>
       <c r="F2965" t="inlineStr"/>
-      <c r="G2965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2965" t="inlineStr"/>
     </row>
     <row r="2966">
       <c r="A2966" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2966" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2966" t="inlineStr"/>
@@ -80903,27 +80911,23 @@
       <c r="F2966" t="inlineStr"/>
       <c r="G2966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2967">
       <c r="A2967" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2967" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>Fed Balance SheetJUL/09</t>
         </is>
       </c>
       <c r="C2967" t="inlineStr"/>
-      <c r="D2967" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2967" t="inlineStr"/>
       <c r="E2967" t="inlineStr"/>
       <c r="F2967" t="inlineStr"/>
       <c r="G2967" t="inlineStr">
@@ -80935,20 +80939,16 @@
     <row r="2968">
       <c r="A2968" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2968" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2968" t="inlineStr"/>
-      <c r="D2968" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
+      <c r="D2968" t="inlineStr"/>
       <c r="E2968" t="inlineStr"/>
       <c r="F2968" t="inlineStr"/>
       <c r="G2968" t="inlineStr">
@@ -80960,57 +80960,107 @@
     <row r="2969">
       <c r="A2969" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2969" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>Baker Hughes Oil Rig CountJUL/11</t>
         </is>
       </c>
       <c r="C2969" t="inlineStr"/>
       <c r="D2969" t="inlineStr">
         <is>
-          <t>$-316B</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E2969" t="inlineStr"/>
-      <c r="F2969" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="F2969" t="inlineStr"/>
       <c r="G2969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2970">
       <c r="A2970" t="inlineStr">
         <is>
-          <t>Saturday July 12 2025</t>
-        </is>
-      </c>
-      <c r="B2970" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJUL/11</t>
+        </is>
+      </c>
       <c r="C2970" t="inlineStr"/>
-      <c r="D2970" t="inlineStr"/>
+      <c r="D2970" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
       <c r="E2970" t="inlineStr"/>
       <c r="F2970" t="inlineStr"/>
-      <c r="G2970" t="inlineStr"/>
+      <c r="G2970" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2971">
       <c r="A2971" t="inlineStr">
         <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementJUN</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr"/>
+      <c r="D2971" t="inlineStr">
+        <is>
+          <t>$-316B</t>
+        </is>
+      </c>
+      <c r="E2971" t="inlineStr"/>
+      <c r="F2971" t="inlineStr">
+        <is>
+          <t>$-350.0B</t>
+        </is>
+      </c>
+      <c r="G2971" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>Saturday July 12 2025</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr"/>
+      <c r="C2972" t="inlineStr"/>
+      <c r="D2972" t="inlineStr"/>
+      <c r="E2972" t="inlineStr"/>
+      <c r="F2972" t="inlineStr"/>
+      <c r="G2972" t="inlineStr"/>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
           <t>Monday July 14 2025</t>
         </is>
       </c>
-      <c r="B2971" t="inlineStr"/>
-      <c r="C2971" t="inlineStr"/>
-      <c r="D2971" t="inlineStr"/>
-      <c r="E2971" t="inlineStr"/>
-      <c r="F2971" t="inlineStr"/>
-      <c r="G2971" t="inlineStr"/>
+      <c r="B2973" t="inlineStr"/>
+      <c r="C2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr"/>
+      <c r="E2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr"/>
+      <c r="G2973" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -79877,7 +79877,11 @@
           <t>98.8</t>
         </is>
       </c>
-      <c r="E2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr">
+        <is>
+          <t>98.7</t>
+        </is>
+      </c>
       <c r="F2924" t="inlineStr">
         <is>
           <t>99</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -80249,7 +80249,7 @@
       <c r="C2939" t="inlineStr"/>
       <c r="D2939" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2939" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2973"/>
+  <dimension ref="A1:G2975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81066,6 +81066,48 @@
       <c r="F2973" t="inlineStr"/>
       <c r="G2973" t="inlineStr"/>
     </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr"/>
+      <c r="E2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr"/>
+      <c r="G2974" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr"/>
+      <c r="D2975" t="inlineStr"/>
+      <c r="E2975" t="inlineStr"/>
+      <c r="F2975" t="inlineStr"/>
+      <c r="G2975" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
